--- a/wolf_money.xlsx
+++ b/wolf_money.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caiog_cdghegb\OneDrive\Área de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/09e79d9d7faad5a3/Área de Trabalho/bootcamp_analise_de_dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA366A64-8D9C-4431-BAED-7EA27A5D03FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{DA366A64-8D9C-4431-BAED-7EA27A5D03FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B17A88B-410B-46DE-AC11-24A7EE0F17F2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="0" xr2:uid="{DEAD7888-506A-4877-9CE1-DE8443CE381A}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="91">
   <si>
     <t>NOME</t>
   </si>
@@ -36,9 +36,6 @@
     <t>CPF</t>
   </si>
   <si>
-    <t>NASCIMENTO</t>
-  </si>
-  <si>
     <t>TITULO DE ELEITOR</t>
   </si>
   <si>
@@ -63,24 +60,12 @@
     <t>E-MAIL</t>
   </si>
   <si>
-    <t>DEPENDENTE CÔNJUGE</t>
-  </si>
-  <si>
-    <t>RESIDENTE EXTERIOR</t>
-  </si>
-  <si>
-    <t>HOUVE ALTERAÇÕES DA ENTREGA ANTERIOR</t>
-  </si>
-  <si>
     <t>DADOS DO TITULAR</t>
   </si>
   <si>
     <t>SIM</t>
   </si>
   <si>
-    <t>Cainhuu</t>
-  </si>
-  <si>
     <t>NÃO</t>
   </si>
   <si>
@@ -93,9 +78,6 @@
     <t>VALOR ATUAL</t>
   </si>
   <si>
-    <t xml:space="preserve">ANEXO </t>
-  </si>
-  <si>
     <t>banco.pdf</t>
   </si>
   <si>
@@ -249,15 +231,6 @@
     <t>82 - Banco Topázio</t>
   </si>
   <si>
-    <t>1º Banco</t>
-  </si>
-  <si>
-    <t>2º Banco</t>
-  </si>
-  <si>
-    <t>3º Banco</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
@@ -291,10 +264,43 @@
     <t>Rua do Cervo, N.º 1324</t>
   </si>
   <si>
-    <t>caio@outlook.com</t>
-  </si>
-  <si>
     <t>FREELANCER</t>
+  </si>
+  <si>
+    <t>FitzChivalry Farseer</t>
+  </si>
+  <si>
+    <t>DATA DE NASCIMENTO</t>
+  </si>
+  <si>
+    <t>chivalryfitz@outlook.com</t>
+  </si>
+  <si>
+    <t>HOUVE ALTERAÇÕES DA ENTREGA ANTERIOR?</t>
+  </si>
+  <si>
+    <t>DEPENDENTE CÔNJUGE?</t>
+  </si>
+  <si>
+    <t>RESIDENTE EXTERIOR?</t>
+  </si>
+  <si>
+    <t>Não houve nenhum banco envolvida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANEXO (Nome do arquivo) </t>
+  </si>
+  <si>
+    <t>1º Informe</t>
+  </si>
+  <si>
+    <t>2º Informe</t>
+  </si>
+  <si>
+    <t>3º Informe</t>
+  </si>
+  <si>
+    <t>4º Informe</t>
   </si>
 </sst>
 </file>
@@ -302,12 +308,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="6">
-    <numFmt numFmtId="169" formatCode="000&quot;.&quot;000&quot;.&quot;000&quot;-&quot;00"/>
-    <numFmt numFmtId="170" formatCode="00000\-000"/>
-    <numFmt numFmtId="176" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="178" formatCode="0000&quot; &quot;0000&quot; &quot;0000"/>
-    <numFmt numFmtId="179" formatCode="&quot;(&quot;00&quot;) &quot;0000&quot;-&quot;0000"/>
-    <numFmt numFmtId="180" formatCode="&quot;(&quot;00&quot;) &quot;00000&quot;-&quot;0000"/>
+    <numFmt numFmtId="164" formatCode="000&quot;.&quot;000&quot;.&quot;000&quot;-&quot;00"/>
+    <numFmt numFmtId="165" formatCode="00000\-000"/>
+    <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="167" formatCode="0000&quot; &quot;0000&quot; &quot;0000"/>
+    <numFmt numFmtId="168" formatCode="&quot;(&quot;00&quot;) &quot;0000&quot;-&quot;0000"/>
+    <numFmt numFmtId="169" formatCode="&quot;(&quot;00&quot;) &quot;00000&quot;-&quot;0000"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -342,36 +348,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFED7D31"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color theme="2" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -384,8 +363,37 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <sz val="14"/>
+      <sz val="12"/>
+      <color rgb="FFED7D31"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -395,12 +403,12 @@
       <b/>
       <sz val="18"/>
       <color theme="5"/>
-      <name val="Segoe UI"/>
+      <name val="Microsoft JhengHei"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -425,7 +433,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -569,64 +577,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color theme="2" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thick">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thick">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -634,31 +664,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -666,27 +672,69 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Cabeçalho 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Hiperligação" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Título 1" xfId="1" builtinId="16"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -696,7 +744,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <name val="Segoe UI"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -710,12 +758,12 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <name val="Segoe UI"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="176" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
@@ -726,7 +774,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <name val="Segoe UI"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -741,7 +789,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <name val="Segoe UI"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -756,7 +804,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <name val="Segoe UI"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -767,9 +815,8 @@
         <right/>
         <top/>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -823,15 +870,15 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Estilo de Tabela 1" pivot="0" count="3" xr9:uid="{7957E0E5-711F-4315-8DB2-3A8788048ADD}">
+    <tableStyle name="Estilo de Tabela 1" pivot="0" count="2" xr9:uid="{7957E0E5-711F-4315-8DB2-3A8788048ADD}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FF313C4D"/>
       <color rgb="FF27303D"/>
-      <color rgb="FF313C4D"/>
       <color rgb="FF425166"/>
       <color rgb="FFED7D31"/>
       <color rgb="FF09711A"/>
@@ -861,8 +908,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1897380</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>259080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -904,14 +951,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2453640</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -989,14 +1036,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>468630</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>186690</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1916430</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1065,14 +1112,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>468630</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1916430</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>270510</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1141,14 +1188,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>468630</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1916430</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>240030</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1217,14 +1264,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2141220</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1274,14 +1321,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2141220</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1331,14 +1378,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2141220</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1388,14 +1435,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2141220</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1441,130 +1488,6 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>474980</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>70955</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>985520</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>25235</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="link_icon" descr="LinkedIn icon in Windows 10 Style">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63A9E8D5-6C24-1516-6222-313D1EE5B358}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="474980" y="4124795"/>
-          <a:ext cx="510540" cy="510540"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1310640</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>70625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1821840</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>25565</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Imagem 23" descr="Github logo - Ícones Social media e Logos">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E0C97FB-8B32-012A-49D1-84AB05802E24}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1310640" y="4124465"/>
-          <a:ext cx="511200" cy="511200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1581,7 +1504,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>1897380</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1623,14 +1546,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2453640</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1708,14 +1631,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>468630</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1916430</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1786,14 +1709,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>468630</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1916430</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1862,14 +1785,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>468630</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>262890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1916430</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1938,14 +1861,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2141220</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1995,14 +1918,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2141220</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2052,14 +1975,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2141220</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2109,14 +2032,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2141220</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2162,130 +2085,6 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>474980</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>48095</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>985520</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>162395</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="link_icon" descr="LinkedIn icon in Windows 10 Style">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{117547FD-A6E5-431B-B510-839435EDBDF5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="474980" y="4124795"/>
-          <a:ext cx="510540" cy="510540"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1310640</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>47765</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1821840</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>162725</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11" descr="Github logo - Ícones Social media e Logos">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C440133-159F-43E0-B809-0A41AC77F669}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1310640" y="4124465"/>
-          <a:ext cx="511200" cy="511200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2301,8 +2100,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1897380</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>154719</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2345,13 +2144,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:rowOff>54003</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2453640</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>276639</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2429,14 +2228,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>468630</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>194310</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>80341</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1916430</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>196630</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2507,14 +2306,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>468630</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>49862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1916430</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>80010</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>166149</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2583,14 +2382,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>468630</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19381</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1916430</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>201930</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>135669</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2659,14 +2458,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>7951</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2141220</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>7951</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2716,14 +2515,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>238539</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2141220</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>238539</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2773,14 +2572,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>208059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2141220</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>208059</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2830,14 +2629,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>269020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2141220</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>269020</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2883,136 +2682,12 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>474980</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>2375</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>985520</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>86195</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="link_icon" descr="LinkedIn icon in Windows 10 Style">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB00890D-C83C-4CE6-B6EB-EA5F9CB76C4D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="474980" y="4124795"/>
-          <a:ext cx="510540" cy="510540"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1310640</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>2045</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1821840</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>86525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11" descr="Github logo - Ícones Social media e Logos">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0D80016-117B-4902-951D-DF3F9DC48F64}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1310640" y="4124465"/>
-          <a:ext cx="511200" cy="511200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{92892E17-D871-4309-99F9-183796FBAAB6}" name="Tabela2" displayName="Tabela2" ref="C7:E22" totalsRowShown="0" headerRowDxfId="4" dataDxfId="0">
-  <autoFilter ref="C7:E22" xr:uid="{92892E17-D871-4309-99F9-183796FBAAB6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{92892E17-D871-4309-99F9-183796FBAAB6}" name="tbl_notes" displayName="tbl_notes" ref="C8:E23" totalsRowShown="0" headerRowDxfId="4" dataDxfId="0">
+  <autoFilter ref="C8:E23" xr:uid="{92892E17-D871-4309-99F9-183796FBAAB6}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{EF856FFD-E702-4381-B505-10FBDDE4BC19}" name="DATA" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{CE8A265F-D637-47A1-B5A2-F26434BCC355}" name="CATEGORIA" dataDxfId="2"/>
@@ -3023,8 +2698,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E0CF3C51-2558-4A4F-93EE-B41A5FA1E530}" name="Tabela1" displayName="Tabela1" ref="A1:A51" totalsRowShown="0">
-  <autoFilter ref="A1:A51" xr:uid="{E0CF3C51-2558-4A4F-93EE-B41A5FA1E530}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E0CF3C51-2558-4A4F-93EE-B41A5FA1E530}" name="tbl_bancos" displayName="tbl_bancos" ref="A1:A52" totalsRowShown="0">
+  <autoFilter ref="A1:A52" xr:uid="{E0CF3C51-2558-4A4F-93EE-B41A5FA1E530}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{009562F3-70C7-46C6-9819-D0A812DEEC76}" name="BANCO"/>
   </tableColumns>
@@ -3329,159 +3004,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D057BFD3-D7B2-43C5-BF99-5A93C46E508A}">
-  <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:F21"/>
+  <sheetPr codeName="Planilha1">
+    <tabColor rgb="FF27303D"/>
+  </sheetPr>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D6:D19"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="47.21875" customWidth="1"/>
-    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="3" max="3" width="53.88671875" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E1" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="13"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:6" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="3:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" ht="22.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11">
+        <v>12345678900</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="12">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="13">
+        <v>123412341234</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="15">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="16">
+        <v>1234567890</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="17">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C16" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C17" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C18" s="8" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="21">
-        <v>12345678900</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="22">
-        <v>44114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="23">
-        <v>123412341234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="24" t="s">
+      <c r="D18" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C19" s="9" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="25">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="26">
-        <v>1234567890</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="27">
-        <v>123456789</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A17" s="3"/>
-      <c r="C17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D21" s="4"/>
-    </row>
+    </row>
+    <row r="20" spans="3:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
@@ -3502,146 +3171,171 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887A6494-B5B6-4330-AF52-EACCEC127E90}">
-  <sheetPr codeName="Planilha2"/>
-  <dimension ref="A1:E21"/>
+  <sheetPr codeName="Planilha2">
+    <tabColor rgb="FF27303D"/>
+  </sheetPr>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D21" activeCellId="2" sqref="D9:D11 D14:D16 D19:D21"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36.109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="47.21875" customWidth="1"/>
-    <col min="4" max="4" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E1" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="C5" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="12">
-        <f>SUM(D10,D15,D20,)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C8" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C12" s="9"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C13" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C18" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:4" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>22</v>
+    <row r="3" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="3:5" ht="22.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="34">
+        <f>SUM(D10,D15,D20,D25)</f>
+        <v>31793</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="3:5" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C13" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="3:5" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="24">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C18" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="3:4" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="24">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C23" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="3:4" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="24">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -3652,7 +3346,7 @@
           <x14:formula1>
             <xm:f>BANCOS!$A$2:$A$51</xm:f>
           </x14:formula1>
-          <xm:sqref>D9 D14 D19</xm:sqref>
+          <xm:sqref>D9 D14 D19 D24</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3662,228 +3356,239 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348BDDEB-4014-473B-8EFD-6C1626E3E839}">
-  <sheetPr codeName="Planilha3"/>
-  <dimension ref="A1:E22"/>
+  <sheetPr codeName="Planilha3">
+    <tabColor rgb="FF27303D"/>
+  </sheetPr>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="C8:E22"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="43.109375" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="1" max="1" width="36.109375" style="27" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="28"/>
+    <col min="3" max="3" width="32.21875" style="28" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" style="28" customWidth="1"/>
+    <col min="5" max="5" width="28" style="28" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E1" s="1"/>
-    </row>
-    <row r="3" spans="1:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="C3" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-    </row>
-    <row r="4" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:5" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C6" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-    </row>
-    <row r="7" spans="1:5" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C7" s="15" t="s">
+    <row r="1" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E1" s="29"/>
+    </row>
+    <row r="3" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C3" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+    </row>
+    <row r="4" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="3:5" ht="22.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="37">
+        <f>SUM(tbl_notes[VALOR])</f>
+        <v>38881</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" ht="22.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="3:5" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C7" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+    </row>
+    <row r="8" spans="3:5" ht="22.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C9" s="20">
+        <v>45803</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C8" s="31">
-        <v>45803</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" s="33">
+      <c r="E9" s="22">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C9" s="31">
+    <row r="10" spans="3:5" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C10" s="20">
         <v>45804</v>
       </c>
-      <c r="D9" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="33">
+      <c r="D10" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="22">
         <v>4223</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C10" s="31">
+    <row r="11" spans="3:5" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C11" s="20">
         <v>45805</v>
       </c>
-      <c r="D10" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="33">
+      <c r="D11" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="22">
         <v>1270</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C11" s="31">
+    <row r="12" spans="3:5" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C12" s="20">
         <v>45806</v>
       </c>
-      <c r="D11" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" s="33">
+      <c r="D12" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="22">
         <v>704</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C12" s="31">
+    <row r="13" spans="3:5" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C13" s="20">
         <v>45807</v>
       </c>
-      <c r="D12" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="33">
+      <c r="D13" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="22">
         <v>4695</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C13" s="31">
+    <row r="14" spans="3:5" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C14" s="20">
         <v>45808</v>
       </c>
-      <c r="D13" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="33">
+      <c r="D14" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="22">
         <v>4043</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="31">
+    <row r="15" spans="3:5" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C15" s="20">
         <v>45809</v>
       </c>
-      <c r="D14" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="33">
+      <c r="D15" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="22">
         <v>3085</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="31">
+    <row r="16" spans="3:5" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C16" s="20">
         <v>45810</v>
       </c>
-      <c r="D15" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="33">
+      <c r="D16" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="22">
         <v>1312</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C16" s="31">
+    <row r="17" spans="3:5" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C17" s="20">
         <v>45811</v>
       </c>
-      <c r="D16" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="33">
+      <c r="D17" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="22">
         <v>2762</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A17" s="3"/>
-      <c r="C17" s="31">
+    <row r="18" spans="3:5" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C18" s="20">
         <v>45812</v>
       </c>
-      <c r="D17" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="33">
+      <c r="D18" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="22">
         <v>4692</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C18" s="31">
+    <row r="19" spans="3:5" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C19" s="20">
         <v>45813</v>
       </c>
-      <c r="D18" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" s="33">
+      <c r="D19" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="22">
         <v>3148</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C19" s="31">
+    <row r="20" spans="3:5" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C20" s="20">
         <v>45814</v>
       </c>
-      <c r="D19" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="33">
+      <c r="D20" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="22">
         <v>2434</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C20" s="31">
+    <row r="21" spans="3:5" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C21" s="20">
         <v>45815</v>
       </c>
-      <c r="D20" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="33">
+      <c r="D21" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="22">
         <v>1953</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C21" s="31">
+    <row r="22" spans="3:5" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C22" s="20">
         <v>45816</v>
       </c>
-      <c r="D21" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="33">
+      <c r="D22" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="22">
         <v>3608</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C22" s="31">
+    <row r="23" spans="3:5" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C23" s="20">
         <v>45817</v>
       </c>
-      <c r="D22" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" s="33">
+      <c r="D23" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="22">
         <v>922</v>
       </c>
     </row>
+    <row r="24" spans="3:5" ht="22.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="2">
-    <mergeCell ref="C6:E6"/>
     <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D22" xr:uid="{C7799E7F-89C5-41D3-BC3B-209411DC793B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D23" xr:uid="{C7799E7F-89C5-41D3-BC3B-209411DC793B}">
       <formula1>"HOLERITE, CNPJ, FREELANCER"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3897,10 +3602,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594CD770-5597-41CC-9BA4-A7AC0965D579}">
-  <dimension ref="A1:A51"/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:A52"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3910,260 +3618,266 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
